--- a/biology/Médecine/Antonio_Vallisneri/Antonio_Vallisneri.xlsx
+++ b/biology/Médecine/Antonio_Vallisneri/Antonio_Vallisneri.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Vallisneri, né à Trassilico (ou Tresilico) dans la région de Garfagnana, le 3 mai 1661 et mort à Padoue le 18 janvier 1730, est un médecin et un naturaliste italien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Vallisneri a commencé par étudier la philosophie aristotélicienne en Reggio d'Émilie, mais c’est en étudiant sous la direction de Marcello Malpighi (1628-1694), le fondateur de l’anatomie microscopique, ainsi que sous l’influence de Francesco Redi (1626-1697), qu’il adopte la philosophie empirique. Il obtient son doctorat en médecine en 1684 à l’École de médecine de Reggio d'Émilie. Il a étudié à Bologne, Venise, Padoue et Parme. En 1689, Vallisnieri se fixe à Scandiano pour y exercer la médecine. C’est grâce à la notoriété que lui apporte cette publication qu'il obtient la chaire extraordinaire de philosophie expérimentale moderne, ensuite transformée en chaire de médecine pratique (1700) puis de médecine théorique (1709) à l’Université de Padoue.
 Le 27 avril 1692 à Bologne, à l'âge de 31 ans, il épouse Laura Mattacodi âgée de quinze ans avec laquelle il aura 18 enfants, dont seulement 4 survivront, y compris Antonio le Jeune, lui-même longtemps professeur d’histoire naturelle à l’université de Padoue, qui a consacré sa vie à recueillir et prendre soin de la vaste production littéraire de son père et à sa bibliothèque, qui comptait, à sa mort environ mille volumes, tous offerts ensuite à la Bibliothèque universitaire de Padoue.
@@ -544,7 +558,9 @@
           <t>Activité scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Vallisneri est connu comme un des premiers chercheurs en médecine à avoir proposé l’abandon de la théorie aristotélicienne en faveur de l’approche expérimentale fondée sur les principes scientifiques soutenus par Galilée (v. 1522-1591). Vallisneri affirmait que la connaissance scientifique est acquise par l’expérience et le raisonnement et il suivit ce principe pour les sections anatomiques et la description des insectes. Sa carrière médicale fut, pour cette raison, au centre d’une controverse épineuse, dans la mesure où nombre de ses contemporains ne pouvaient se résoudre à abandonner les théories médiévales en vigueur à l’époque, même face aux preuves expérimentales.
 De 1696 à 1700, il fait paraître ses Dialoghi sopra la curiosa Origine di molti Insetti (Dialogues sur la curieuse origine de plusieurs insectes) dans La Galleria di Minerva. Il y expose ses premières expériences sur la reproduction des insectes qui, avec les observations de Francesco Redi (1626-1697) et de Malpighi, contribue à démentir la croyance en la génération spontanée. Son texte, comme fréquemment à son époque, est écrit sous forme de dialogue entre Malpighi et Pline l'Ancien. Il fréquente l’Académie des physiocrates de Sienne. En 1701, il commence à correspondre avec Martin Lister (1638-1712) puis, en 1703, avec Sir Hans Sloane (1660-1753). Prélude, deux ans plus tard, à son admission à la Royal Society. En 1710, il fait paraître les Considerazioni, ed Esperienze intorno al creduto Cervello di Bue impietrito, le Considerazioni, ed Esperienze intorno alla Generazione de’ Vermi ordinari del corpo umano e la Prima Raccolta d’Osservationi dans lesquels il démontre que certaines larves parasitaires des tissus animaux sont engendrées par des mouches. Ce texte lui vaut une renommée internationale comme le démontre sa correspondance.
@@ -586,7 +602,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(Liste partielle)
 (it) Saggio de' dialoghi sopra la curiosa origine di molti insetti, « Galleria di Minerva », I, pp. 297–322, Albrizzi, Venezia, 1696.
